--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.825757333333333</v>
+        <v>2.082435</v>
       </c>
       <c r="N2">
-        <v>5.477272</v>
+        <v>6.247305</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="Q2">
-        <v>71.148865007392</v>
+        <v>79.09666144541498</v>
       </c>
       <c r="R2">
-        <v>640.3397850665281</v>
+        <v>711.8699530087349</v>
       </c>
       <c r="S2">
-        <v>0.688733638790647</v>
+        <v>0.6922859223558231</v>
       </c>
       <c r="T2">
-        <v>0.6887336387906469</v>
+        <v>0.6922859223558232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.685730333333334</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>29.057191</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.1711822560557247</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.1711822560557247</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.825757333333333</v>
+        <v>0.016739</v>
       </c>
       <c r="N3">
-        <v>5.477272</v>
+        <v>0.050217</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007974088855902371</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007974088855902369</v>
       </c>
       <c r="Q3">
-        <v>17.68379318477245</v>
+        <v>0.6357936818843333</v>
       </c>
       <c r="R3">
-        <v>159.154138662952</v>
+        <v>5.722143136959</v>
       </c>
       <c r="S3">
-        <v>0.1711822560557247</v>
+        <v>0.005564723054651946</v>
       </c>
       <c r="T3">
-        <v>0.1711822560557247</v>
+        <v>0.005564723054651945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6067633333333333</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H4">
-        <v>1.82029</v>
+        <v>29.057191</v>
       </c>
       <c r="I4">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J4">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.825757333333333</v>
+        <v>2.082435</v>
       </c>
       <c r="N4">
-        <v>5.477272</v>
+        <v>6.247305</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="Q4">
-        <v>1.107802605431111</v>
+        <v>20.169903846695</v>
       </c>
       <c r="R4">
-        <v>9.970223448880001</v>
+        <v>181.529134620255</v>
       </c>
       <c r="S4">
-        <v>0.01072372580252768</v>
+        <v>0.1765351436226381</v>
       </c>
       <c r="T4">
-        <v>0.01072372580252768</v>
+        <v>0.1765351436226381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.840641000000001</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H5">
-        <v>20.521923</v>
+        <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1208991288160603</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J5">
-        <v>0.1208991288160602</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.825757333333333</v>
+        <v>0.016739</v>
       </c>
       <c r="N5">
-        <v>5.477272</v>
+        <v>0.050217</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.007974088855902371</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.007974088855902369</v>
       </c>
       <c r="Q5">
-        <v>12.48935047045067</v>
+        <v>0.1621294400496667</v>
       </c>
       <c r="R5">
-        <v>112.404154234056</v>
+        <v>1.459164960447</v>
       </c>
       <c r="S5">
-        <v>0.1208991288160603</v>
+        <v>0.001419022331597067</v>
       </c>
       <c r="T5">
-        <v>0.1208991288160602</v>
+        <v>0.001419022331597067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4787493333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H6">
-        <v>1.436248</v>
+        <v>1.702984</v>
       </c>
       <c r="I6">
-        <v>0.008461250535040448</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J6">
-        <v>0.008461250535040448</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.825757333333333</v>
+        <v>2.082435</v>
       </c>
       <c r="N6">
-        <v>5.477272</v>
+        <v>6.247305</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9920259111440977</v>
       </c>
       <c r="Q6">
-        <v>0.8740801061617778</v>
+        <v>1.18211782868</v>
       </c>
       <c r="R6">
-        <v>7.866720955456</v>
+        <v>10.63906045812</v>
       </c>
       <c r="S6">
-        <v>0.008461250535040448</v>
+        <v>0.01034637260797352</v>
       </c>
       <c r="T6">
-        <v>0.008461250535040448</v>
+        <v>0.01034637260797352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5676613333333332</v>
+      </c>
+      <c r="H7">
+        <v>1.702984</v>
+      </c>
+      <c r="I7">
+        <v>0.01042953867610283</v>
+      </c>
+      <c r="J7">
+        <v>0.01042953867610283</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.016739</v>
+      </c>
+      <c r="N7">
+        <v>0.050217</v>
+      </c>
+      <c r="O7">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P7">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q7">
+        <v>0.009502083058666665</v>
+      </c>
+      <c r="R7">
+        <v>0.08551874752799998</v>
+      </c>
+      <c r="S7">
+        <v>8.316606812931435E-05</v>
+      </c>
+      <c r="T7">
+        <v>8.316606812931433E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.823095333333334</v>
+      </c>
+      <c r="H8">
+        <v>17.469286</v>
+      </c>
+      <c r="I8">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="J8">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.082435</v>
+      </c>
+      <c r="N8">
+        <v>6.247305</v>
+      </c>
+      <c r="O8">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="P8">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="Q8">
+        <v>12.12621753047</v>
+      </c>
+      <c r="R8">
+        <v>109.13595777423</v>
+      </c>
+      <c r="S8">
+        <v>0.1061335527234873</v>
+      </c>
+      <c r="T8">
+        <v>0.1061335527234873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.823095333333334</v>
+      </c>
+      <c r="H9">
+        <v>17.469286</v>
+      </c>
+      <c r="I9">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="J9">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.016739</v>
+      </c>
+      <c r="N9">
+        <v>0.050217</v>
+      </c>
+      <c r="O9">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P9">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q9">
+        <v>0.09747279278466668</v>
+      </c>
+      <c r="R9">
+        <v>0.8772551350619999</v>
+      </c>
+      <c r="S9">
+        <v>0.0008531212446191378</v>
+      </c>
+      <c r="T9">
+        <v>0.0008531212446191375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.106903</v>
+      </c>
+      <c r="I10">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J10">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.082435</v>
+      </c>
+      <c r="N10">
+        <v>6.247305</v>
+      </c>
+      <c r="O10">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="P10">
+        <v>0.9920259111440977</v>
+      </c>
+      <c r="Q10">
+        <v>0.7683511829349998</v>
+      </c>
+      <c r="R10">
+        <v>6.915160646415</v>
+      </c>
+      <c r="S10">
+        <v>0.006724919834175606</v>
+      </c>
+      <c r="T10">
+        <v>0.006724919834175607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.106903</v>
+      </c>
+      <c r="I11">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J11">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.016739</v>
+      </c>
+      <c r="N11">
+        <v>0.050217</v>
+      </c>
+      <c r="O11">
+        <v>0.007974088855902371</v>
+      </c>
+      <c r="P11">
+        <v>0.007974088855902369</v>
+      </c>
+      <c r="Q11">
+        <v>0.006176149772333333</v>
+      </c>
+      <c r="R11">
+        <v>0.05558534795099999</v>
+      </c>
+      <c r="S11">
+        <v>5.405615690490483E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.405615690490483E-05</v>
       </c>
     </row>
   </sheetData>
